--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd48-Cd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd48-Cd2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>11.62883233333334</v>
+        <v>0.01935066666666667</v>
       </c>
       <c r="H2">
-        <v>34.88649700000001</v>
+        <v>0.058052</v>
       </c>
       <c r="I2">
-        <v>0.09996346654689561</v>
+        <v>0.0002219742535102441</v>
       </c>
       <c r="J2">
-        <v>0.09996346654689561</v>
+        <v>0.0002219742535102442</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4327703333333333</v>
+        <v>0.07195966666666666</v>
       </c>
       <c r="N2">
-        <v>1.298311</v>
+        <v>0.215879</v>
       </c>
       <c r="O2">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660251</v>
       </c>
       <c r="P2">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660252</v>
       </c>
       <c r="Q2">
-        <v>5.032613645174112</v>
+        <v>0.001392467523111111</v>
       </c>
       <c r="R2">
-        <v>45.293522806567</v>
+        <v>0.012532207708</v>
       </c>
       <c r="S2">
-        <v>0.0487588661633502</v>
+        <v>1.671486529400491E-05</v>
       </c>
       <c r="T2">
-        <v>0.04875886616335021</v>
+        <v>1.671486529400492E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>11.62883233333334</v>
+        <v>0.01935066666666667</v>
       </c>
       <c r="H3">
-        <v>34.88649700000001</v>
+        <v>0.058052</v>
       </c>
       <c r="I3">
-        <v>0.09996346654689561</v>
+        <v>0.0002219742535102441</v>
       </c>
       <c r="J3">
-        <v>0.09996346654689561</v>
+        <v>0.0002219742535102442</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.786507</v>
       </c>
       <c r="O3">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="P3">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="Q3">
-        <v>3.048719343997667</v>
+        <v>0.005073144929333332</v>
       </c>
       <c r="R3">
-        <v>27.438474095979</v>
+        <v>0.04565830436399999</v>
       </c>
       <c r="S3">
-        <v>0.02953775293403359</v>
+        <v>6.089688463348415E-05</v>
       </c>
       <c r="T3">
-        <v>0.02953775293403359</v>
+        <v>6.089688463348416E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01935066666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.058052</v>
+      </c>
+      <c r="I4">
+        <v>0.0002219742535102441</v>
+      </c>
+      <c r="J4">
+        <v>0.0002219742535102442</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>11.62883233333334</v>
-      </c>
-      <c r="H4">
-        <v>34.88649700000001</v>
-      </c>
-      <c r="I4">
-        <v>0.09996346654689561</v>
-      </c>
-      <c r="J4">
-        <v>0.09996346654689561</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.192309</v>
+        <v>0.6214993333333333</v>
       </c>
       <c r="N4">
-        <v>0.576927</v>
+        <v>1.864498</v>
       </c>
       <c r="O4">
-        <v>0.2167476598998025</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="P4">
-        <v>0.2167476598998026</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="Q4">
-        <v>2.236329117191</v>
+        <v>0.01202642643288889</v>
       </c>
       <c r="R4">
-        <v>20.126962054719</v>
+        <v>0.108237837896</v>
       </c>
       <c r="S4">
-        <v>0.02166684744951182</v>
+        <v>0.000144362503582755</v>
       </c>
       <c r="T4">
-        <v>0.02166684744951182</v>
+        <v>0.0001443625035827551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>104.7019906666667</v>
+        <v>87.15592466666668</v>
       </c>
       <c r="H5">
-        <v>314.105972</v>
+        <v>261.467774</v>
       </c>
       <c r="I5">
-        <v>0.9000365334531044</v>
+        <v>0.9997780257464898</v>
       </c>
       <c r="J5">
-        <v>0.9000365334531043</v>
+        <v>0.9997780257464899</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4327703333333333</v>
+        <v>0.07195966666666666</v>
       </c>
       <c r="N5">
-        <v>1.298311</v>
+        <v>0.215879</v>
       </c>
       <c r="O5">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660251</v>
       </c>
       <c r="P5">
-        <v>0.4877668597104531</v>
+        <v>0.07530091904660252</v>
       </c>
       <c r="Q5">
-        <v>45.31191540147689</v>
+        <v>6.271711287038444</v>
       </c>
       <c r="R5">
-        <v>407.807238613292</v>
+        <v>56.445401583346</v>
       </c>
       <c r="S5">
-        <v>0.4390079935471029</v>
+        <v>0.0752842041813085</v>
       </c>
       <c r="T5">
-        <v>0.4390079935471029</v>
+        <v>0.07528420418130853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>104.7019906666667</v>
+        <v>87.15592466666668</v>
       </c>
       <c r="H6">
-        <v>314.105972</v>
+        <v>261.467774</v>
       </c>
       <c r="I6">
-        <v>0.9000365334531044</v>
+        <v>0.9997780257464898</v>
       </c>
       <c r="J6">
-        <v>0.9000365334531043</v>
+        <v>0.9997780257464899</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.786507</v>
       </c>
       <c r="O6">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="P6">
-        <v>0.2954854803897443</v>
+        <v>0.2743421080169271</v>
       </c>
       <c r="Q6">
-        <v>27.44961619108933</v>
+        <v>22.84958161393534</v>
       </c>
       <c r="R6">
-        <v>247.046545719804</v>
+        <v>205.646234525418</v>
       </c>
       <c r="S6">
-        <v>0.2659477274557107</v>
+        <v>0.2742812111322936</v>
       </c>
       <c r="T6">
-        <v>0.2659477274557107</v>
+        <v>0.2742812111322936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>104.7019906666667</v>
+        <v>87.15592466666668</v>
       </c>
       <c r="H7">
-        <v>314.105972</v>
+        <v>261.467774</v>
       </c>
       <c r="I7">
-        <v>0.9000365334531044</v>
+        <v>0.9997780257464898</v>
       </c>
       <c r="J7">
-        <v>0.9000365334531043</v>
+        <v>0.9997780257464899</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.192309</v>
+        <v>0.6214993333333333</v>
       </c>
       <c r="N7">
-        <v>0.576927</v>
+        <v>1.864498</v>
       </c>
       <c r="O7">
-        <v>0.2167476598998025</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="P7">
-        <v>0.2167476598998026</v>
+        <v>0.6503569729364704</v>
       </c>
       <c r="Q7">
-        <v>20.135135123116</v>
+        <v>54.16734907638356</v>
       </c>
       <c r="R7">
-        <v>181.216216108044</v>
+        <v>487.506141687452</v>
       </c>
       <c r="S7">
-        <v>0.1950808124502907</v>
+        <v>0.6502126104328877</v>
       </c>
       <c r="T7">
-        <v>0.1950808124502907</v>
+        <v>0.6502126104328878</v>
       </c>
     </row>
   </sheetData>
